--- a/docs/英雄属性定义表-2025-02-17.xlsx
+++ b/docs/英雄属性定义表-2025-02-17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\HeroClash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15095B-610B-45B7-83A5-637F03A9CDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA415F3-3383-4FF8-8350-D945888114DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{98F918BC-027C-407E-B707-52E48C5F506E}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{98F918BC-027C-407E-B707-52E48C5F506E}">
       <text>
         <r>
           <rPr>
@@ -86,12 +86,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00D5CD7B-DCD2-4D73-9124-2F0A79421FD5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>XC H:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、战士
+2、法师
+3、弓弩手</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>武将序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +214,22 @@
   </si>
   <si>
     <t>星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,311 +580,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="7" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>85</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="2">
         <v>1.5</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
         <v>95</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="2">
         <v>1.5</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
         <v>95</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M4" s="2">
         <v>1.5</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
         <v>95</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="2">
         <v>1.5</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
         <v>60</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="2">
         <v>1.5</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M7" s="2">
         <v>1.5</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="2">
         <v>1.5</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
         <v>85</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="2">
         <v>1.5</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>90</v>
       </c>
     </row>

--- a/docs/英雄属性定义表-2025-02-17.xlsx
+++ b/docs/英雄属性定义表-2025-02-17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\HeroClash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA415F3-3383-4FF8-8350-D945888114DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF7DC2-B2F6-4E96-AB81-2EAC2182831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>武将序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物列传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,18 +584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="7" width="11.59765625" customWidth="1"/>
+    <col min="6" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -611,34 +615,37 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -651,29 +658,29 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
       <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
         <v>85</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.01</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.5</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -686,29 +693,29 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
         <v>95</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>0.01</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.5</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -721,29 +728,29 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
       <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
         <v>95</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>0.01</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.5</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -756,29 +763,29 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
       <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
         <v>95</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.01</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -791,29 +798,29 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
       <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
         <v>60</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>0.01</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>1.5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -826,29 +833,29 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
       <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
         <v>19</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>0.01</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1.5</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -861,29 +868,29 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
       <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
         <v>40</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>0.01</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>1.5</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -896,25 +903,25 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
       <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
         <v>85</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>0.01</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>1.5</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>90</v>
       </c>
     </row>

--- a/docs/英雄属性定义表-2025-02-17.xlsx
+++ b/docs/英雄属性定义表-2025-02-17.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\HeroClash\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF7DC2-B2F6-4E96-AB81-2EAC2182831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>XC H</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{17AF41C7-C8B2-4FEB-9E3D-C23F9B5278EA}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>XC H:</t>
@@ -46,9 +46,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,15 +54,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{98F918BC-027C-407E-B707-52E48C5F506E}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>XC H:</t>
@@ -72,9 +68,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -86,15 +80,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00D5CD7B-DCD2-4D73-9124-2F0A79421FD5}">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>XC H:</t>
@@ -102,15 +94,37 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、战士
-2、法师
-3、弓弩手</t>
+用于武将检索ID、点亮武将收藏簿</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>XC H:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+普通-白色
+良好-绿色
+精良-蓝色
+史诗-紫色
+传说-橙色</t>
         </r>
       </text>
     </comment>
@@ -119,27 +133,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+  <si>
+    <t>武将名</t>
+  </si>
   <si>
     <t>武将序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
   </si>
   <si>
     <t>等级</t>
   </si>
   <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
     <t>防御力</t>
   </si>
   <si>
-    <t>生命值</t>
-  </si>
-  <si>
     <t>攻击速度</t>
   </si>
   <si>
+    <t>暴击率</t>
+  </si>
+  <si>
     <t>暴击伤害</t>
   </si>
   <si>
@@ -149,110 +174,202 @@
     <t>分值</t>
   </si>
   <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
     <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘璋</t>
   </si>
   <si>
     <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兀突骨</t>
   </si>
   <si>
     <t>良好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
   </si>
   <si>
     <t>史诗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兀突骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘璋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物列传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工族类</t>
+  </si>
+  <si>
+    <t>黑心董总</t>
+  </si>
+  <si>
+    <t>技能：
+【无情加班】 — 释放“加班风暴”，对敌方全体造成范围伤害，并附带“加班疲劳”效果（降低目标攻击与防御），简直就是让敌人宛如被迫连续加班，疲惫不堪！</t>
+  </si>
+  <si>
+    <t>KPI狂魔</t>
+  </si>
+  <si>
+    <t>技能：
+【业绩暴击】 — 发动瞬间“狂揽业绩”模式，对单体目标造成爆发性伤害，并使其陷入“业绩拖延症”，行动速度大幅降低，简直是典型的黑心老板操作！</t>
+  </si>
+  <si>
+    <t>内卷达人</t>
+  </si>
+  <si>
+    <t>技能：内卷终结者
+突然爆发全部潜能，短暂内提升所有属性（攻击、防御、速度等），仿佛在内卷中脱颖而出；但随之而来的是技能冷却期内属性回落，反映出内卷后的过度消耗。</t>
+  </si>
+  <si>
+    <t>追星族</t>
+  </si>
+  <si>
+    <t>技能：粉丝狂热
+当偶像出现或受到鼓舞时，瞬间激发极高的攻击力和速度，以连击的方式对多个敌人造成伤害；技能期间会伴随特殊光效，犹如狂热粉丝集体为偶像打Call，但技能结束后状态迅速回落。</t>
+  </si>
+  <si>
+    <t>牛马武将</t>
+  </si>
+  <si>
+    <t>技能：午休反击
+在短暂的“午休”后突然觉醒，发动一记反击，对周围敌人造成高额伤害，并附带眩晕效果，仿佛打工仔在偷闲后以极高效率反击上司的压力，令人措手不及。</t>
+  </si>
+  <si>
+    <t>社畜武将</t>
+  </si>
+  <si>
+    <t>技能：加班突袭
+在短时间内大幅提升攻击速度和伤害，就像夜以继日地加班冲刺；技能结束后会进入“疲劳”状态，短暂降低防御力，象征着长时间加班后的疲惫感。</t>
+  </si>
+  <si>
+    <t>键盘侠武将</t>
+  </si>
+  <si>
+    <t>技能：键盘轰炸
+模拟网络上“刷屏”般的攻击，以一连串虚拟键盘攻击打击范围内敌人，并有一定几率使敌人短暂眩晕；虽然威力看似夸张，但在实战中威力有限，正符合键盘侠只会在线上“喊话”的特点。</t>
+  </si>
+  <si>
+    <t>佛系武将</t>
+  </si>
+  <si>
+    <t>技能：禅定平静
+进入一段时间的禅定状态，大幅降低所受伤害并缓慢回复生命，但在此期间无法主动发起攻击，象征着佛系心态下对一切看淡的处世哲学。</t>
+  </si>
+  <si>
+    <t>巨婴武将</t>
+  </si>
+  <si>
+    <t>技能：依赖大人
+临危之时呼唤“父母援手”，为自身提供一个短暂的防御护盾，同时恢复少量生命值；技能效果虽好，但持续时间极短且触发条件较为苛刻，反映出巨婴武将依赖外力的特点。</t>
+  </si>
+  <si>
+    <t>直播武将</t>
+  </si>
+  <si>
+    <t>技能：弹幕轰炸
+在战斗中开启“直播模式”，源源不断地发射弹幕（持续伤害效果），让敌人仿佛遭遇网友狂喷，同时自身短暂获得闪避加成，犹如直播间人气爆棚。</t>
+  </si>
+  <si>
+    <t>剁手武将</t>
+  </si>
+  <si>
+    <t>技能：购物狂潮
+一瞬间释放全部购物力，对敌人造成连环打击，并有几率获得额外道具掉落，仿佛剁手一时买买买，满屏福利狂降。</t>
+  </si>
+  <si>
+    <t>996武将</t>
+  </si>
+  <si>
+    <t>技能：加班狂潮
+启动“996模式”，在短时间内大幅提升攻击、防御和速度，但技能结束后进入“疲劳”状态，反映出长时间高强度工作的代价。</t>
+  </si>
+  <si>
+    <t>摸鱼武将</t>
+  </si>
+  <si>
+    <t>技能：偷懒大法
+突然放缓一切动作进入“摸鱼状态”，短暂降低受到的伤害并恢复少量生命，但在技能期间无法主动进攻，代表那份偷懒与悠闲。</t>
+  </si>
+  <si>
+    <t>网抑云武将</t>
+  </si>
+  <si>
+    <t>技能：抑郁激发
+一时情绪低落反而激发内在潜能，随机提升暴击率和暴击伤害，但同时降低移动速度，仿佛在抑郁中苦中作乐。</t>
+  </si>
+  <si>
+    <t>剧本杀武将</t>
+  </si>
+  <si>
+    <t>技能：推理反击
+利用瞬间的冷静与推理找出敌人的破绽，发动一次精准反击，对单个目标造成大量伤害，并附带短暂晕眩效果，恰似解开谜题后的豁然开朗。</t>
+  </si>
+  <si>
+    <t>白领武将</t>
+  </si>
+  <si>
+    <t>技能：会议破防
+发起“高强度会议”，对范围内敌人施加压力，造成群体伤害，并削弱敌人的防御，正如在会议中用数据和逻辑击溃对方防线。</t>
+  </si>
+  <si>
+    <t>打call武将</t>
+  </si>
+  <si>
+    <t>技能：粉丝助威
+呼唤身后热情粉丝齐声打call，短时间内提升自身所有属性并恢复生命，仿佛一瞬间获得无限支持与能量。</t>
+  </si>
+  <si>
+    <t>追番武将</t>
+  </si>
+  <si>
+    <t>技能：番剧狂热
+启动“追番模式”，在短暂时间内使出连续技，对单个或多个目标造成连击伤害，且有几率触发额外连击，就像追番时被剧情牵动情绪般连绵不断。</t>
+  </si>
+  <si>
+    <t>打赏武将</t>
+  </si>
+  <si>
+    <t>技能：重金砸场
+突然爆发“打赏能量”，对敌方全体造成巨大伤害，同时随机掉落战场增益效果，仿佛在直播间里大手一挥砸出豪气与财富。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待机动画：
+武器：20帧最上，40帧最下，50帧还原
+人物：15-20向下结束，40-45向上结束，50还原
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -260,35 +377,367 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -296,26 +745,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -364,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -399,7 +1137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -573,361 +1311,549 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="6" max="8" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.6785714285714" customWidth="1"/>
+    <col min="4" max="5" width="11.5982142857143" customWidth="1"/>
+    <col min="12" max="12" width="41.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
       </c>
       <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="J2">
-        <v>85</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>95</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
-      <c r="J3">
-        <v>95</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>95</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="J4">
-        <v>95</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
       <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
         <v>100</v>
       </c>
-      <c r="J5">
-        <v>95</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
         <v>1.5</v>
       </c>
-      <c r="P6">
+      <c r="M6">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
         <v>1.5</v>
       </c>
-      <c r="P7">
+      <c r="M7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
         <v>1.5</v>
       </c>
-      <c r="P8">
+      <c r="M8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>85</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="M9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="84" spans="1:12">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>85</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
-        <v>90</v>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="84" spans="1:12">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="85" customHeight="1" spans="1:12">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="101" spans="1:12">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="84" spans="1:12">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="84" spans="1:12">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="101" spans="1:12">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="84" spans="1:12">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" ht="84" spans="1:12">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="84" spans="1:12">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" ht="68" spans="1:12">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" ht="68" spans="1:12">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" ht="68" spans="1:12">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="68" spans="1:12">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="84" spans="1:12">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" ht="68" spans="1:12">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" ht="68" spans="1:12">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" ht="84" spans="1:12">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="68" spans="1:12">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" ht="118" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>